--- a/HTML_CSS_Responsive_Web_Design_Course.xlsx
+++ b/HTML_CSS_Responsive_Web_Design_Course.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7390" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7390"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="686">
   <si>
     <t>URL</t>
   </si>
@@ -2074,13 +2074,16 @@
   </si>
   <si>
     <t>An Introduction to CSS</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2119,8 +2122,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2148,6 +2159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2274,7 +2291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2332,6 +2349,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2342,15 +2368,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,6 +2390,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3092,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3113,7 +3139,7 @@
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>683</v>
       </c>
     </row>
@@ -3130,16 +3156,16 @@
       <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -3150,13 +3176,13 @@
       <c r="D4" s="14">
         <v>9.2905092592592595E-2</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -3171,6 +3197,9 @@
       <c r="D6" s="21">
         <v>2.1296296296296298E-3</v>
       </c>
+      <c r="E6" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -3185,6 +3214,9 @@
       <c r="D7" s="21">
         <v>2.7546296296296294E-3</v>
       </c>
+      <c r="E7" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -3199,6 +3231,9 @@
       <c r="D8" s="21">
         <v>4.155092592592593E-3</v>
       </c>
+      <c r="E8" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -3213,6 +3248,9 @@
       <c r="D9" s="21">
         <v>2.2106481481481478E-3</v>
       </c>
+      <c r="E9" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -3227,6 +3265,9 @@
       <c r="D10" s="21">
         <v>5.1736111111111115E-3</v>
       </c>
+      <c r="E10" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -3241,6 +3282,9 @@
       <c r="D11" s="21">
         <v>2.1064814814814813E-3</v>
       </c>
+      <c r="E11" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -3255,6 +3299,9 @@
       <c r="D12" s="21">
         <v>1.5624999999999999E-3</v>
       </c>
+      <c r="E12" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -3269,12 +3316,15 @@
       <c r="D13" s="21">
         <v>8.6805555555555551E-4</v>
       </c>
+      <c r="E13" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -3289,6 +3339,9 @@
       <c r="D15" s="21">
         <v>8.6805555555555551E-4</v>
       </c>
+      <c r="E15" s="37" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -3303,8 +3356,11 @@
       <c r="D16" s="21">
         <v>8.449074074074075E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E16" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -3317,8 +3373,11 @@
       <c r="D17" s="21">
         <v>1.2268518518518518E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E17" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -3331,8 +3390,11 @@
       <c r="D18" s="21">
         <v>1.6319444444444445E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E18" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -3345,8 +3407,11 @@
       <c r="D19" s="21">
         <v>3.6342592592592594E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E19" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -3359,8 +3424,11 @@
       <c r="D20" s="21">
         <v>2.3263888888888887E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E20" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -3373,8 +3441,11 @@
       <c r="D21" s="21">
         <v>4.8726851851851856E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E21" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
@@ -3387,8 +3458,11 @@
       <c r="D22" s="21">
         <v>2.2453703703703702E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E22" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -3401,8 +3475,11 @@
       <c r="D23" s="21">
         <v>4.5717592592592589E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E23" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -3415,14 +3492,17 @@
       <c r="D24" s="21">
         <v>6.3657407407407402E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
+      <c r="E24" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="39"/>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -3435,8 +3515,11 @@
       <c r="D26" s="21">
         <v>3.1250000000000001E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E26" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -3449,8 +3532,11 @@
       <c r="D27" s="21">
         <v>8.1018518518518516E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E27" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
@@ -3463,8 +3549,11 @@
       <c r="D28" s="21">
         <v>4.0393518518518521E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E28" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
@@ -3477,8 +3566,11 @@
       <c r="D29" s="21">
         <v>3.5416666666666665E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E29" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
@@ -3491,14 +3583,17 @@
       <c r="D30" s="21">
         <v>4.2824074074074075E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+      <c r="E30" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="28"/>
-    </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" s="39"/>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
@@ -3511,8 +3606,11 @@
       <c r="D32" s="21">
         <v>4.6296296296296293E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E32" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>79</v>
       </c>
@@ -3525,8 +3623,11 @@
       <c r="D33" s="21">
         <v>2.5115740740740741E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E33" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
@@ -3539,8 +3640,11 @@
       <c r="D34" s="21">
         <v>2.8240740740740739E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E34" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
@@ -3553,8 +3657,11 @@
       <c r="D35" s="21">
         <v>4.8611111111111104E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E35" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
@@ -3567,8 +3674,11 @@
       <c r="D36" s="21">
         <v>4.0972222222222226E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E36" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>83</v>
       </c>
@@ -3581,8 +3691,11 @@
       <c r="D37" s="21">
         <v>6.134259259259259E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E37" s="37" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>94</v>
       </c>
@@ -3596,13 +3709,13 @@
         <v>4.0509259259259258E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="28"/>
-    </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>96</v>
       </c>
@@ -3616,7 +3729,7 @@
         <v>7.291666666666667E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>98</v>
       </c>
@@ -3630,7 +3743,7 @@
         <v>1.1689814814814816E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
@@ -3644,7 +3757,7 @@
         <v>1.5740740740740741E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
@@ -3658,7 +3771,7 @@
         <v>3.1018518518518522E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
@@ -3672,7 +3785,7 @@
         <v>2.3611111111111111E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>102</v>
       </c>
@@ -3686,7 +3799,7 @@
         <v>2.2685185185185182E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>103</v>
       </c>
@@ -3700,7 +3813,7 @@
         <v>4.6180555555555558E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -3714,11 +3827,11 @@
         <v>4.0509259259259258E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
     </row>
     <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
@@ -3791,12 +3904,12 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
@@ -3809,10 +3922,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
     </row>
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
@@ -3941,10 +4054,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
@@ -4101,10 +4214,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B79" s="28"/>
+      <c r="B79" s="25"/>
     </row>
     <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
@@ -4233,10 +4346,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
     </row>
     <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
@@ -4337,10 +4450,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B97" s="28"/>
+      <c r="B97" s="25"/>
     </row>
     <row r="98" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
@@ -4455,12 +4568,12 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="12"/>
@@ -4473,10 +4586,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="B109" s="28"/>
+      <c r="B109" s="25"/>
     </row>
     <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
@@ -4717,10 +4830,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="B127" s="28"/>
+      <c r="B127" s="25"/>
     </row>
     <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
@@ -4849,10 +4962,10 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="B137" s="28"/>
+      <c r="B137" s="25"/>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
@@ -4967,10 +5080,10 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="B146" s="28"/>
+      <c r="B146" s="25"/>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
@@ -5043,12 +5156,12 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="29" t="s">
+      <c r="A153" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="15"/>
@@ -5061,10 +5174,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B155" s="28"/>
+      <c r="B155" s="25"/>
     </row>
     <row r="156" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
@@ -5193,10 +5306,10 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="26" t="s">
+      <c r="A165" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="B165" s="26"/>
+      <c r="B165" s="29"/>
     </row>
     <row r="166" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
@@ -5367,10 +5480,10 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="26" t="s">
+      <c r="A178" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="B178" s="26"/>
+      <c r="B178" s="29"/>
     </row>
     <row r="179" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
@@ -5513,10 +5626,10 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="26" t="s">
+      <c r="A189" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="B189" s="26"/>
+      <c r="B189" s="29"/>
     </row>
     <row r="190" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
@@ -5659,10 +5772,10 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="26" t="s">
+      <c r="A200" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="B200" s="26"/>
+      <c r="B200" s="29"/>
     </row>
     <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
@@ -5777,10 +5890,10 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="26" t="s">
+      <c r="A209" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="B209" s="26"/>
+      <c r="B209" s="29"/>
     </row>
     <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
@@ -5881,10 +5994,10 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="26" t="s">
+      <c r="A217" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="B217" s="26"/>
+      <c r="B217" s="29"/>
     </row>
     <row r="218" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
@@ -5999,10 +6112,10 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="26" t="s">
+      <c r="A226" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="B226" s="26"/>
+      <c r="B226" s="29"/>
     </row>
     <row r="227" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
@@ -6104,19 +6217,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A48:B48"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="A217:B217"/>
     <mergeCell ref="A226:B226"/>
@@ -6133,6 +6233,19 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -6342,7 +6455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/HTML_CSS_Responsive_Web_Design_Course.xlsx
+++ b/HTML_CSS_Responsive_Web_Design_Course.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="686">
   <si>
     <t>URL</t>
   </si>
@@ -2083,7 +2083,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2125,6 +2125,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2291,7 +2299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2349,6 +2357,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2356,6 +2367,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,13 +2408,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3118,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B31"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3132,14 +3161,14 @@
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="29" t="s">
         <v>683</v>
       </c>
     </row>
@@ -3156,16 +3185,16 @@
       <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -3174,3277 +3203,3322 @@
         <v>161</v>
       </c>
       <c r="D4" s="14">
-        <v>9.2905092592592595E-2</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>8.9490740740740746E-2</v>
+      </c>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="39"/>
+      <c r="A5" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="D6" s="21">
-        <v>2.1296296296296298E-3</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>685</v>
+        <v>5.9027777777777778E-4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="D7" s="21">
-        <v>2.7546296296296294E-3</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>685</v>
+        <v>1.1574074074074073E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="D8" s="21">
-        <v>4.155092592592593E-3</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>685</v>
+        <v>2.5694444444444445E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="D9" s="21">
-        <v>2.2106481481481478E-3</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>685</v>
+        <v>1.1689814814814816E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D10" s="21">
-        <v>5.1736111111111115E-3</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>685</v>
+        <v>2.0833333333333333E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="D11" s="21">
-        <v>2.1064814814814813E-3</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>685</v>
+        <v>4.108796296296297E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D12" s="21">
-        <v>1.5624999999999999E-3</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>685</v>
+        <v>1.8287037037037037E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4.7106481481481478E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="21">
-        <v>8.6805555555555551E-4</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="21">
-        <v>8.6805555555555551E-4</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>685</v>
-      </c>
+      <c r="C14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="21">
+        <v>5.9027777777777778E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="D16" s="21">
+        <v>9.1435185185185185E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1.8518518518518517E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="21">
+        <v>2.9976851851851848E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2.5115740740740741E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="21">
+        <v>2.1296296296296298E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="21">
+        <v>2.8009259259259259E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="21">
+        <v>2.1643518518518518E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="21">
+        <v>3.0439814814814821E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="21">
+        <v>7.6388888888888893E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="21">
+        <v>2.7083333333333334E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="21">
+        <v>7.291666666666667E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="21">
+        <v>4.1666666666666669E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="21">
         <v>8.449074074074075E-4</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="21">
-        <v>1.2268518518518518E-3</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="21">
-        <v>1.6319444444444445E-3</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="21">
-        <v>3.6342592592592594E-3</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="21">
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="21">
+        <v>3.5648148148148154E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="21">
+        <v>2.5347222222222221E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1.2731481481481483E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1.8518518518518517E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="21">
         <v>2.3263888888888887E-3</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="21">
-        <v>4.8726851851851856E-3</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="21">
-        <v>2.2453703703703702E-3</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="21">
-        <v>4.5717592592592589E-3</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="21">
+        <v>2.3148148148148151E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="21">
-        <v>6.3657407407407402E-4</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="39"/>
-    </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C36" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="21">
+        <v>3.5879629629629635E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="21">
-        <v>3.1250000000000001E-4</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="21">
-        <v>8.1018518518518516E-4</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="21">
-        <v>4.0393518518518521E-3</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="21">
-        <v>3.5416666666666665E-3</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C38" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="21">
+        <v>3.9351851851851852E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="21">
+        <v>1.8981481481481482E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="21">
+        <v>2.1643518518518518E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="21">
+        <v>2.6041666666666665E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="21">
+        <v>3.3449074074074071E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="21">
+        <v>2.1296296296296298E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="21">
-        <v>4.2824074074074075E-4</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="39"/>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C44" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="21">
+        <v>2.8935185185185189E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="26"/>
+    </row>
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="21">
-        <v>4.6296296296296293E-4</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="21">
-        <v>2.5115740740740741E-3</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="21">
-        <v>2.8240740740740739E-3</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="21">
-        <v>4.8611111111111104E-4</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="21">
-        <v>4.0972222222222226E-3</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="21">
-        <v>6.134259259259259E-4</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="21">
-        <v>4.0509259259259258E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="25"/>
-    </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="21">
-        <v>7.291666666666667E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="21">
-        <v>1.1689814814814816E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="21">
-        <v>1.5740740740740741E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="21">
-        <v>3.1018518518518522E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="21">
-        <v>2.3611111111111111E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="21">
-        <v>2.2685185185185182E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="D46" s="21">
-        <v>4.6180555555555558E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>3.9351851851851852E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="D47" s="21">
-        <v>4.0509259259259258E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="25"/>
+        <v>1.6203703703703703E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="21">
+        <v>3.1365740740740742E-3</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="D49" s="21">
-        <v>8.7962962962962962E-4</v>
+        <v>1.0185185185185186E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="D50" s="21">
-        <v>2.0601851851851853E-3</v>
+        <v>3.2523148148148151E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="D51" s="21">
-        <v>4.0393518518518521E-3</v>
+        <v>4.6412037037037038E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="D52" s="21">
-        <v>4.6990740740740743E-3</v>
+        <v>5.0462962962962961E-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="D53" s="21">
         <v>6.4814814814814813E-4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="A55" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D56" s="14">
-        <v>8.9490740740740746E-2</v>
+        <v>8.8263888888888878E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="25"/>
+      <c r="A57" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B57" s="26"/>
     </row>
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="D58" s="21">
-        <v>5.9027777777777778E-4</v>
+        <v>1.0185185185185186E-3</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="D59" s="21">
-        <v>1.1574074074074073E-3</v>
+        <v>1.3194444444444443E-3</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>175</v>
+        <v>321</v>
       </c>
       <c r="D60" s="21">
-        <v>2.5694444444444445E-3</v>
+        <v>2.3379629629629631E-3</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>170</v>
+        <v>313</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
       <c r="D61" s="21">
-        <v>1.1689814814814816E-3</v>
+        <v>1.1921296296296296E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>179</v>
+        <v>325</v>
       </c>
       <c r="D62" s="21">
-        <v>2.0833333333333333E-3</v>
+        <v>4.108796296296297E-3</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c r="D63" s="21">
-        <v>4.108796296296297E-3</v>
+        <v>6.018518518518519E-4</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>173</v>
+        <v>316</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>182</v>
+        <v>328</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="D64" s="21">
-        <v>1.8287037037037037E-3</v>
+        <v>5.2083333333333333E-4</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="D65" s="21">
-        <v>4.7106481481481478E-3</v>
+        <v>8.6805555555555551E-4</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>30</v>
+        <v>332</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="D66" s="21">
-        <v>5.9027777777777778E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="25"/>
+        <v>2.7662037037037034E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D67" s="21">
+        <v>2.8240740740740739E-3</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>190</v>
+        <v>335</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>191</v>
+        <v>345</v>
       </c>
       <c r="D68" s="21">
-        <v>9.1435185185185185E-4</v>
+        <v>5.9027777777777778E-4</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>200</v>
+        <v>346</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="D69" s="21">
-        <v>1.8518518518518517E-3</v>
+        <v>1.5972222222222221E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="D70" s="21">
-        <v>2.9976851851851848E-3</v>
+        <v>7.6620370370370366E-3</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>205</v>
+        <v>351</v>
       </c>
       <c r="D71" s="21">
-        <v>2.5115740740740741E-3</v>
+        <v>3.6689814814814814E-3</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>206</v>
+        <v>352</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="D72" s="21">
-        <v>2.1296296296296298E-3</v>
+        <v>2.8124999999999995E-3</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="D73" s="21">
-        <v>2.8009259259259259E-3</v>
+        <v>2.2337962962962967E-3</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>211</v>
+        <v>356</v>
       </c>
       <c r="D74" s="21">
-        <v>2.1643518518518518E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D75" s="21">
-        <v>3.0439814814814821E-3</v>
-      </c>
+        <v>5.4398148148148144E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="D76" s="21">
-        <v>7.6388888888888893E-4</v>
+        <v>3.4722222222222224E-4</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>216</v>
+        <v>359</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="D77" s="21">
-        <v>2.7083333333333334E-3</v>
+        <v>1.0648148148148147E-3</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>217</v>
+        <v>360</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>30</v>
+        <v>370</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>220</v>
+        <v>371</v>
       </c>
       <c r="D78" s="21">
-        <v>7.291666666666667E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="25"/>
+        <v>1.1226851851851851E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="21">
+        <v>2.2106481481481478E-3</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>4</v>
+        <v>374</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>223</v>
+        <v>375</v>
       </c>
       <c r="D80" s="21">
-        <v>4.1666666666666669E-4</v>
+        <v>4.1666666666666666E-3</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>224</v>
+        <v>363</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="D81" s="21">
-        <v>8.449074074074075E-4</v>
+        <v>4.1898148148148146E-3</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>225</v>
+        <v>364</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="D82" s="21">
-        <v>3.5648148148148154E-3</v>
+        <v>2.5462962962962961E-3</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>234</v>
+        <v>382</v>
       </c>
       <c r="D83" s="21">
-        <v>2.5347222222222221E-3</v>
+        <v>3.4606481481481485E-3</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>236</v>
+        <v>384</v>
       </c>
       <c r="D84" s="21">
-        <v>1.2731481481481483E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="21">
-        <v>1.8518518518518517E-3</v>
-      </c>
+        <v>1.5972222222222221E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>243</v>
+        <v>387</v>
       </c>
       <c r="D86" s="21">
-        <v>2.3263888888888887E-3</v>
+        <v>7.0601851851851847E-4</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>240</v>
+        <v>388</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>244</v>
+        <v>395</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>245</v>
+        <v>396</v>
       </c>
       <c r="D87" s="21">
-        <v>2.3148148148148151E-3</v>
+        <v>4.9768518518518521E-4</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>241</v>
+        <v>389</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>30</v>
+        <v>397</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="D88" s="21">
-        <v>3.5879629629629635E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B89" s="25"/>
+        <v>1.2384259259259258E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D89" s="21">
+        <v>1.5162037037037036E-3</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>248</v>
+        <v>391</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>249</v>
+        <v>402</v>
       </c>
       <c r="D90" s="21">
-        <v>3.9351851851851852E-4</v>
+        <v>1.1111111111111111E-3</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>250</v>
+        <v>392</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>253</v>
+        <v>403</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>254</v>
+        <v>404</v>
       </c>
       <c r="D91" s="21">
-        <v>1.8981481481481482E-3</v>
+        <v>7.1759259259259259E-3</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>251</v>
+        <v>393</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>255</v>
+        <v>405</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>256</v>
+        <v>406</v>
       </c>
       <c r="D92" s="21">
-        <v>2.1643518518518518E-3</v>
+        <v>1.7013888888888892E-3</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>252</v>
+        <v>394</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>258</v>
+        <v>407</v>
       </c>
       <c r="D93" s="21">
-        <v>2.6041666666666665E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D94" s="21">
-        <v>3.3449074074074071E-3</v>
-      </c>
+        <v>4.0509259259259258E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B94" s="26"/>
     </row>
     <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>264</v>
+        <v>410</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>265</v>
+        <v>411</v>
       </c>
       <c r="D95" s="21">
-        <v>2.1296296296296298E-3</v>
+        <v>4.9652777777777777E-3</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>30</v>
+        <v>414</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>266</v>
+        <v>415</v>
       </c>
       <c r="D96" s="21">
-        <v>2.8935185185185189E-4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="B97" s="25"/>
+        <v>4.1435185185185186E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D97" s="21">
+        <v>1.2152777777777778E-3</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>269</v>
+        <v>417</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>270</v>
+        <v>421</v>
       </c>
       <c r="D98" s="21">
-        <v>3.9351851851851852E-4</v>
+        <v>5.2777777777777771E-3</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>273</v>
+        <v>418</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="D99" s="21">
-        <v>1.6203703703703703E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D100" s="21">
-        <v>3.1365740740740742E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D101" s="21">
-        <v>1.0185185185185186E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D102" s="21">
-        <v>3.2523148148148151E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D103" s="21">
-        <v>4.6412037037037038E-3</v>
-      </c>
+        <v>9.3750000000000007E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" s="14">
+        <v>9.418981481481481E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B103" s="26"/>
     </row>
     <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>278</v>
+        <v>459</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>287</v>
+        <v>4</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="D104" s="21">
-        <v>5.0462962962962961E-3</v>
+        <v>5.9027777777777778E-4</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>279</v>
+        <v>460</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>290</v>
+        <v>468</v>
       </c>
       <c r="D105" s="21">
-        <v>6.4814814814814813E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D108" s="14">
-        <v>8.8263888888888878E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="B109" s="25"/>
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D106" s="21">
+        <v>2.615740740740741E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D107" s="21">
+        <v>1.8981481481481482E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D109" s="21">
+        <v>8.2175925925925917E-4</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>309</v>
+        <v>465</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>310</v>
+        <v>478</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>306</v>
+        <v>479</v>
       </c>
       <c r="D110" s="21">
-        <v>1.0185185185185186E-3</v>
+        <v>1.3310185185185185E-3</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>311</v>
+        <v>466</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>4</v>
+        <v>480</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>319</v>
+        <v>481</v>
       </c>
       <c r="D111" s="21">
-        <v>1.3194444444444443E-3</v>
+        <v>1.7592592592592592E-3</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>321</v>
+        <v>482</v>
       </c>
       <c r="D112" s="21">
-        <v>2.3379629629629631E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D113" s="21">
-        <v>1.1921296296296296E-3</v>
-      </c>
+        <v>4.2824074074074075E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="B113" s="32"/>
     </row>
     <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>314</v>
+        <v>485</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>324</v>
+        <v>4</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>325</v>
+        <v>484</v>
       </c>
       <c r="D114" s="21">
-        <v>4.108796296296297E-3</v>
+        <v>4.7453703703703704E-4</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>315</v>
+        <v>486</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>326</v>
+        <v>493</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>327</v>
+        <v>494</v>
       </c>
       <c r="D115" s="21">
-        <v>6.018518518518519E-4</v>
+        <v>1.7708333333333332E-3</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>316</v>
+        <v>487</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>328</v>
+        <v>495</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>329</v>
+        <v>496</v>
       </c>
       <c r="D116" s="21">
-        <v>5.2083333333333333E-4</v>
+        <v>8.6805555555555551E-4</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>317</v>
+        <v>488</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>330</v>
+        <v>497</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>331</v>
+        <v>498</v>
       </c>
       <c r="D117" s="21">
-        <v>8.6805555555555551E-4</v>
+        <v>1.9560185185185184E-3</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>332</v>
+        <v>499</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="D118" s="21">
-        <v>2.7662037037037034E-3</v>
+        <v>1.0300925925925926E-3</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>334</v>
+        <v>490</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>342</v>
+        <v>501</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>343</v>
+        <v>502</v>
       </c>
       <c r="D119" s="21">
-        <v>2.8240740740740739E-3</v>
+        <v>5.4398148148148144E-4</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>344</v>
+        <v>503</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>345</v>
+        <v>504</v>
       </c>
       <c r="D120" s="21">
-        <v>5.9027777777777778E-4</v>
+        <v>4.4212962962962956E-3</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>346</v>
+        <v>505</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>347</v>
+        <v>506</v>
       </c>
       <c r="D121" s="21">
-        <v>1.5972222222222221E-3</v>
+        <v>1.261574074074074E-3</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>337</v>
+        <v>507</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>349</v>
+        <v>512</v>
       </c>
       <c r="D122" s="21">
-        <v>7.6620370370370366E-3</v>
+        <v>1.0532407407407407E-3</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>338</v>
+        <v>508</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>350</v>
+        <v>513</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>351</v>
+        <v>514</v>
       </c>
       <c r="D123" s="21">
-        <v>3.6689814814814814E-3</v>
+        <v>6.7129629629629625E-4</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>339</v>
+        <v>509</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>352</v>
+        <v>515</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>353</v>
+        <v>516</v>
       </c>
       <c r="D124" s="21">
-        <v>2.8124999999999995E-3</v>
+        <v>3.414351851851852E-3</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>354</v>
+        <v>30</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>355</v>
+        <v>517</v>
       </c>
       <c r="D125" s="21">
-        <v>2.2337962962962967E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D126" s="21">
-        <v>5.4398148148148144E-4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="B127" s="25"/>
+        <v>4.0509259259259258E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B126" s="32"/>
+    </row>
+    <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D127" s="21">
+        <v>3.3564814814814812E-4</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>358</v>
+        <v>521</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>4</v>
+        <v>530</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>367</v>
+        <v>531</v>
       </c>
       <c r="D128" s="21">
-        <v>3.4722222222222224E-4</v>
+        <v>1.1226851851851851E-3</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>359</v>
+        <v>522</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>368</v>
+        <v>532</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="D129" s="21">
-        <v>1.0648148148148147E-3</v>
+        <v>1.1805555555555556E-3</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>360</v>
+        <v>523</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>370</v>
+        <v>534</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>371</v>
+        <v>535</v>
       </c>
       <c r="D130" s="21">
-        <v>1.1226851851851851E-3</v>
+        <v>1.261574074074074E-3</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>361</v>
+        <v>524</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>372</v>
+        <v>536</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>373</v>
+        <v>537</v>
       </c>
       <c r="D131" s="21">
-        <v>2.2106481481481478E-3</v>
+        <v>7.8703703703703705E-4</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>362</v>
+        <v>525</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>374</v>
+        <v>538</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>375</v>
+        <v>539</v>
       </c>
       <c r="D132" s="21">
-        <v>4.1666666666666666E-3</v>
+        <v>2.1296296296296298E-3</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>363</v>
+        <v>526</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>376</v>
+        <v>540</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>377</v>
+        <v>541</v>
       </c>
       <c r="D133" s="21">
-        <v>4.1898148148148146E-3</v>
+        <v>1.5277777777777779E-3</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>364</v>
+        <v>527</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>378</v>
+        <v>542</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
       <c r="D134" s="21">
-        <v>2.5462962962962961E-3</v>
+        <v>1.0069444444444444E-3</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>365</v>
+        <v>528</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>380</v>
+        <v>544</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
       <c r="D135" s="21">
-        <v>3.4606481481481485E-3</v>
+        <v>3.1481481481481482E-3</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>381</v>
+        <v>529</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>383</v>
+        <v>30</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>384</v>
+        <v>546</v>
       </c>
       <c r="D136" s="21">
-        <v>1.5972222222222221E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="B137" s="25"/>
+        <v>3.2407407407407406E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="B137" s="32"/>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>386</v>
+        <v>548</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>387</v>
+        <v>549</v>
       </c>
       <c r="D138" s="21">
-        <v>7.0601851851851847E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>388</v>
+        <v>550</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>395</v>
+        <v>558</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>396</v>
+        <v>559</v>
       </c>
       <c r="D139" s="21">
-        <v>4.9768518518518521E-4</v>
+        <v>6.5972222222222213E-4</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>389</v>
+        <v>551</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>397</v>
+        <v>560</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>398</v>
+        <v>561</v>
       </c>
       <c r="D140" s="21">
-        <v>1.2384259259259258E-3</v>
+        <v>2.627314814814815E-3</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>390</v>
+        <v>552</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>399</v>
+        <v>562</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>400</v>
+        <v>563</v>
       </c>
       <c r="D141" s="21">
-        <v>1.5162037037037036E-3</v>
+        <v>2.1759259259259258E-3</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>401</v>
+        <v>564</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>402</v>
+        <v>565</v>
       </c>
       <c r="D142" s="21">
-        <v>1.1111111111111111E-3</v>
+        <v>4.2824074074074075E-4</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>403</v>
+        <v>566</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>404</v>
+        <v>567</v>
       </c>
       <c r="D143" s="21">
-        <v>7.1759259259259259E-3</v>
+        <v>6.134259259259259E-4</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>393</v>
+        <v>555</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>405</v>
+        <v>568</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>406</v>
+        <v>569</v>
       </c>
       <c r="D144" s="21">
-        <v>1.7013888888888892E-3</v>
+        <v>2.8935185185185188E-3</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>394</v>
+        <v>556</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>30</v>
+        <v>570</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>407</v>
+        <v>571</v>
       </c>
       <c r="D145" s="21">
-        <v>4.0509259259259258E-4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="B146" s="25"/>
+        <v>7.9861111111111105E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D146" s="21">
+        <v>2.1064814814814813E-3</v>
+      </c>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>409</v>
+        <v>574</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>410</v>
+        <v>30</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>411</v>
+        <v>575</v>
       </c>
       <c r="D147" s="21">
-        <v>4.9652777777777777E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D148" s="21">
-        <v>4.1435185185185186E-3</v>
-      </c>
+        <v>8.564814814814815E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B148" s="32"/>
     </row>
     <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>413</v>
+        <v>576</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>419</v>
+        <v>578</v>
       </c>
       <c r="D149" s="21">
-        <v>1.2152777777777778E-3</v>
+        <v>5.0925925925925921E-4</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>417</v>
+        <v>579</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>420</v>
+        <v>586</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>421</v>
+        <v>587</v>
       </c>
       <c r="D150" s="21">
-        <v>5.2777777777777771E-3</v>
+        <v>1.0532407407407407E-3</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>418</v>
+        <v>580</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>422</v>
+        <v>588</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>423</v>
+        <v>589</v>
       </c>
       <c r="D151" s="21">
-        <v>9.3750000000000007E-4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D154" s="14">
-        <v>9.418981481481481E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="B155" s="25"/>
+        <v>1.2268518518518518E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D152" s="21">
+        <v>2.9513888888888888E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D153" s="21">
+        <v>1.3657407407407409E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D154" s="21">
+        <v>1.2268518518518518E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D155" s="21">
+        <v>2.9976851851851848E-3</v>
+      </c>
     </row>
     <row r="156" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>459</v>
+        <v>585</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>308</v>
+        <v>598</v>
       </c>
       <c r="D156" s="21">
-        <v>5.9027777777777778E-4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="D157" s="21">
-        <v>1.3657407407407409E-3</v>
-      </c>
+        <v>3.0092592592592595E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="B157" s="32"/>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>461</v>
+        <v>599</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>470</v>
+        <v>4</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>469</v>
+        <v>600</v>
       </c>
       <c r="D158" s="21">
-        <v>2.615740740740741E-3</v>
+        <v>4.6296296296296293E-4</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>462</v>
+        <v>601</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>472</v>
+        <v>608</v>
       </c>
       <c r="D159" s="21">
-        <v>1.8981481481481482E-3</v>
+        <v>6.8287037037037025E-4</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>463</v>
+        <v>602</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>473</v>
+        <v>609</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>475</v>
+        <v>610</v>
+      </c>
+      <c r="D160" s="21">
+        <v>5.6712962962962956E-4</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>464</v>
+        <v>603</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>476</v>
+        <v>611</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>477</v>
+        <v>612</v>
       </c>
       <c r="D161" s="21">
-        <v>8.2175925925925917E-4</v>
+        <v>8.449074074074075E-4</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>465</v>
+        <v>604</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>478</v>
+        <v>613</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>479</v>
+        <v>614</v>
       </c>
       <c r="D162" s="21">
-        <v>1.3310185185185185E-3</v>
+        <v>5.6712962962962956E-4</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>466</v>
+        <v>605</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>480</v>
+        <v>615</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>481</v>
+        <v>616</v>
       </c>
       <c r="D163" s="21">
-        <v>1.7592592592592592E-3</v>
+        <v>2.3842592592592591E-3</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>467</v>
+        <v>606</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>482</v>
+        <v>617</v>
       </c>
       <c r="D164" s="21">
-        <v>4.2824074074074075E-4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="B165" s="29"/>
+        <v>4.0509259259259258E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="B165" s="32"/>
     </row>
     <row r="166" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>485</v>
+        <v>620</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>484</v>
+        <v>621</v>
       </c>
       <c r="D166" s="21">
-        <v>4.7453703703703704E-4</v>
+        <v>4.5138888888888892E-4</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>486</v>
+        <v>622</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>493</v>
+        <v>629</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>494</v>
+        <v>630</v>
       </c>
       <c r="D167" s="21">
-        <v>1.7708333333333332E-3</v>
+        <v>2.4305555555555552E-4</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>487</v>
+        <v>623</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>495</v>
+        <v>631</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>496</v>
+        <v>632</v>
       </c>
       <c r="D168" s="21">
-        <v>8.6805555555555551E-4</v>
+        <v>1.3194444444444443E-3</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>488</v>
+        <v>624</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>497</v>
+        <v>633</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>498</v>
+        <v>634</v>
       </c>
       <c r="D169" s="21">
-        <v>1.9560185185185184E-3</v>
+        <v>7.175925925925927E-4</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>489</v>
+        <v>625</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="D170" s="21">
-        <v>1.0300925925925926E-3</v>
+        <v>4.0972222222222226E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>490</v>
+        <v>626</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>501</v>
+        <v>637</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>502</v>
+        <v>638</v>
       </c>
       <c r="D171" s="21">
-        <v>5.4398148148148144E-4</v>
+        <v>1.3657407407407409E-3</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>491</v>
+        <v>627</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>503</v>
+        <v>639</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>504</v>
+        <v>640</v>
       </c>
       <c r="D172" s="21">
-        <v>4.4212962962962956E-3</v>
+        <v>3.4027777777777784E-3</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>492</v>
+        <v>628</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>505</v>
+        <v>30</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>506</v>
+        <v>641</v>
       </c>
       <c r="D173" s="21">
-        <v>1.261574074074074E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A174" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D174" s="21">
-        <v>1.0532407407407407E-3</v>
-      </c>
+        <v>4.7453703703703704E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="B174" s="32"/>
     </row>
     <row r="175" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>508</v>
+        <v>643</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>514</v>
+        <v>644</v>
       </c>
       <c r="D175" s="21">
-        <v>6.7129629629629625E-4</v>
+        <v>4.7453703703703704E-4</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>509</v>
+        <v>645</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>515</v>
+        <v>651</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>516</v>
+        <v>652</v>
       </c>
       <c r="D176" s="21">
-        <v>3.414351851851852E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>7.9861111111111105E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>510</v>
+        <v>646</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D177" s="21">
+        <v>1.0069444444444444E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D178" s="21">
+        <v>9.6064814814814808E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D179" s="21">
+        <v>5.2083333333333333E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D180" s="21">
+        <v>5.3240740740740748E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="D177" s="21">
+      <c r="C181" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D181" s="21">
+        <v>3.0092592592592595E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="40"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="44" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="41"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D184" s="43">
+        <v>9.2905092592592595E-2</v>
+      </c>
+      <c r="E184" s="45"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="28"/>
+      <c r="E185" s="46"/>
+    </row>
+    <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="21">
+        <v>2.1296296296296298E-3</v>
+      </c>
+      <c r="E186" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="21">
+        <v>2.7546296296296294E-3</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="21">
+        <v>4.155092592592593E-3</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="21">
+        <v>2.2106481481481478E-3</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="21">
+        <v>5.1736111111111115E-3</v>
+      </c>
+      <c r="E190" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A191" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="21">
+        <v>2.1064814814814813E-3</v>
+      </c>
+      <c r="E191" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D192" s="21">
+        <v>1.5624999999999999E-3</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" s="21">
+        <v>8.6805555555555551E-4</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194" s="28"/>
+    </row>
+    <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" s="21">
+        <v>8.6805555555555551E-4</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A196" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D196" s="21">
+        <v>8.449074074074075E-4</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A197" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" s="21">
+        <v>1.2268518518518518E-3</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D198" s="21">
+        <v>1.6319444444444445E-3</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199" s="21">
+        <v>3.6342592592592594E-3</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A200" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D200" s="21">
+        <v>2.3263888888888887E-3</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A201" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D201" s="21">
+        <v>4.8726851851851856E-3</v>
+      </c>
+      <c r="E201" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A202" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D202" s="21">
+        <v>2.2453703703703702E-3</v>
+      </c>
+      <c r="E202" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D203" s="21">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="E203" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D204" s="21">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B205" s="28"/>
+    </row>
+    <row r="206" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A206" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D206" s="21">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="E206" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A207" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D207" s="21">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="E207" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A208" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D208" s="21">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="E208" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A209" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D209" s="21">
+        <v>3.5416666666666665E-3</v>
+      </c>
+      <c r="E209" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A210" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D210" s="21">
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="E210" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B211" s="28"/>
+    </row>
+    <row r="212" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A212" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D212" s="21">
+        <v>4.6296296296296293E-4</v>
+      </c>
+      <c r="E212" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D213" s="21">
+        <v>2.5115740740740741E-3</v>
+      </c>
+      <c r="E213" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A214" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D214" s="21">
+        <v>2.8240740740740739E-3</v>
+      </c>
+      <c r="E214" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A215" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D215" s="21">
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="E215" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A216" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D216" s="21">
+        <v>4.0972222222222226E-3</v>
+      </c>
+      <c r="E216" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A217" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D217" s="21">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="E217" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A218" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D218" s="21">
         <v>4.0509259259259258E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="B178" s="29"/>
-    </row>
-    <row r="179" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B179" s="3" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B219" s="28"/>
+    </row>
+    <row r="220" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A220" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D179" s="21">
-        <v>3.3564814814814812E-4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="D180" s="21">
-        <v>1.1226851851851851E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="D181" s="21">
-        <v>1.1805555555555556E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A182" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D182" s="21">
-        <v>1.261574074074074E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A183" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D183" s="21">
-        <v>7.8703703703703705E-4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A184" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D184" s="21">
-        <v>2.1296296296296298E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D185" s="21">
-        <v>1.5277777777777779E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A186" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="D186" s="21">
-        <v>1.0069444444444444E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A187" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="D187" s="21">
-        <v>3.1481481481481482E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A188" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="B188" s="3" t="s">
+      <c r="C220" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D220" s="21">
+        <v>7.291666666666667E-4</v>
+      </c>
+      <c r="E220" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A221" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D221" s="21">
+        <v>1.1689814814814816E-3</v>
+      </c>
+      <c r="E221" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A222" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D222" s="21">
+        <v>1.5740740740740741E-3</v>
+      </c>
+      <c r="E222" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A223" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D223" s="21">
+        <v>3.1018518518518522E-3</v>
+      </c>
+      <c r="E223" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A224" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D224" s="21">
+        <v>2.3611111111111111E-3</v>
+      </c>
+      <c r="E224" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A225" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D225" s="21">
+        <v>2.2685185185185182E-3</v>
+      </c>
+      <c r="E225" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A226" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D226" s="21">
+        <v>4.6180555555555558E-3</v>
+      </c>
+      <c r="E226" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A227" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D188" s="21">
-        <v>3.2407407407407406E-4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="B189" s="29"/>
-    </row>
-    <row r="190" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A190" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B190" s="3" t="s">
+      <c r="C227" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D227" s="21">
+        <v>4.0509259259259258E-4</v>
+      </c>
+      <c r="E227" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B228" s="28"/>
+    </row>
+    <row r="229" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A229" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D190" s="21">
-        <v>5.2083333333333333E-4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D191" s="21">
-        <v>6.5972222222222213E-4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D192" s="21">
-        <v>2.627314814814815E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D193" s="21">
-        <v>2.1759259259259258E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D194" s="21">
-        <v>4.2824074074074075E-4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="D195" s="21">
-        <v>6.134259259259259E-4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="D196" s="21">
-        <v>2.8935185185185188E-3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A197" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="D197" s="21">
-        <v>7.9861111111111105E-4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A198" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="D198" s="21">
-        <v>2.1064814814814813E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D199" s="21">
-        <v>8.564814814814815E-4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="B200" s="29"/>
-    </row>
-    <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A201" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D201" s="21">
-        <v>5.0925925925925921E-4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="D202" s="21">
-        <v>1.0532407407407407E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A203" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D203" s="21">
-        <v>1.2268518518518518E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A204" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="D204" s="21">
-        <v>2.9513888888888888E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A205" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D205" s="21">
-        <v>1.3657407407407409E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A206" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="D206" s="21">
-        <v>1.2268518518518518E-3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="D207" s="21">
-        <v>2.9976851851851848E-3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A208" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="D208" s="21">
-        <v>3.0092592592592595E-4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="29" t="s">
-        <v>619</v>
-      </c>
-      <c r="B209" s="29"/>
-    </row>
-    <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A210" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="D210" s="21">
-        <v>4.6296296296296293E-4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A211" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D211" s="21">
-        <v>6.8287037037037025E-4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A212" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D212" s="21">
-        <v>5.6712962962962956E-4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="D213" s="21">
-        <v>8.449074074074075E-4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A214" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="D214" s="21">
-        <v>5.6712962962962956E-4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A215" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="D215" s="21">
-        <v>2.3842592592592591E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A216" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="D216" s="21">
-        <v>4.0509259259259258E-4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="B217" s="29"/>
-    </row>
-    <row r="218" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A218" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="D218" s="21">
-        <v>4.5138888888888892E-4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A219" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="D219" s="21">
-        <v>2.4305555555555552E-4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="D220" s="21">
-        <v>1.3194444444444443E-3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="D221" s="21">
-        <v>7.175925925925927E-4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A222" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D222" s="21">
-        <v>4.0972222222222226E-3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A223" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="D223" s="21">
-        <v>1.3657407407407409E-3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A224" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="D224" s="21">
-        <v>3.4027777777777784E-3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A225" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="D225" s="21">
-        <v>4.7453703703703704E-4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B226" s="29"/>
-    </row>
-    <row r="227" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A227" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D227" s="21">
-        <v>4.7453703703703704E-4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A228" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="D228" s="21">
-        <v>7.9861111111111105E-4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A229" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>653</v>
-      </c>
       <c r="C229" s="6" t="s">
-        <v>654</v>
+        <v>147</v>
       </c>
       <c r="D229" s="21">
-        <v>1.0069444444444444E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>8.7962962962962962E-4</v>
+      </c>
+      <c r="E229" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>647</v>
+        <v>148</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>655</v>
+        <v>152</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>656</v>
+        <v>153</v>
       </c>
       <c r="D230" s="21">
-        <v>9.6064814814814808E-4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>2.0601851851851853E-3</v>
+      </c>
+      <c r="E230" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>648</v>
+        <v>149</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>657</v>
+        <v>154</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>658</v>
+        <v>155</v>
       </c>
       <c r="D231" s="21">
-        <v>5.2083333333333333E-4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="E231" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>649</v>
+        <v>150</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>659</v>
+        <v>156</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>660</v>
+        <v>157</v>
       </c>
       <c r="D232" s="21">
-        <v>5.3240740740740748E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>4.6990740740740743E-3</v>
+      </c>
+      <c r="E232" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>650</v>
+        <v>151</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>661</v>
+        <v>158</v>
       </c>
       <c r="D233" s="21">
-        <v>3.0092592592592595E-4</v>
+        <v>6.4814814814814813E-4</v>
+      </c>
+      <c r="E233" s="23" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="E183:E185"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A226:B226"/>
     <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A126:B126"/>
     <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A103:B103"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A228:B228"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
-    <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="C13" r:id="rId8"/>
-    <hyperlink ref="C15" r:id="rId9"/>
-    <hyperlink ref="C16" r:id="rId10"/>
-    <hyperlink ref="C17" r:id="rId11"/>
-    <hyperlink ref="C18" r:id="rId12"/>
-    <hyperlink ref="C19" r:id="rId13"/>
-    <hyperlink ref="C20" r:id="rId14"/>
-    <hyperlink ref="C21" r:id="rId15"/>
-    <hyperlink ref="C23" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C26" r:id="rId19"/>
-    <hyperlink ref="C27" r:id="rId20"/>
-    <hyperlink ref="C28" r:id="rId21"/>
-    <hyperlink ref="C29" r:id="rId22"/>
-    <hyperlink ref="C30" r:id="rId23"/>
-    <hyperlink ref="C32" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
-    <hyperlink ref="C34" r:id="rId26"/>
-    <hyperlink ref="C35" r:id="rId27"/>
-    <hyperlink ref="C36" r:id="rId28"/>
-    <hyperlink ref="C37" r:id="rId29"/>
-    <hyperlink ref="C38" r:id="rId30"/>
-    <hyperlink ref="C40" r:id="rId31"/>
-    <hyperlink ref="C41" r:id="rId32"/>
-    <hyperlink ref="C42" r:id="rId33"/>
-    <hyperlink ref="C43" r:id="rId34"/>
-    <hyperlink ref="C44" r:id="rId35"/>
-    <hyperlink ref="C45" r:id="rId36"/>
-    <hyperlink ref="C46" r:id="rId37"/>
-    <hyperlink ref="C47" r:id="rId38"/>
-    <hyperlink ref="C49" r:id="rId39"/>
-    <hyperlink ref="C50" r:id="rId40"/>
-    <hyperlink ref="C51" r:id="rId41"/>
-    <hyperlink ref="C52" r:id="rId42"/>
-    <hyperlink ref="C53" r:id="rId43"/>
-    <hyperlink ref="C58" r:id="rId44"/>
-    <hyperlink ref="C59" r:id="rId45"/>
-    <hyperlink ref="C60" r:id="rId46"/>
-    <hyperlink ref="C61" r:id="rId47"/>
-    <hyperlink ref="C62" r:id="rId48"/>
-    <hyperlink ref="C63" r:id="rId49"/>
-    <hyperlink ref="C64" r:id="rId50"/>
-    <hyperlink ref="C65" r:id="rId51"/>
-    <hyperlink ref="C66" r:id="rId52"/>
-    <hyperlink ref="C68" r:id="rId53"/>
-    <hyperlink ref="C69" r:id="rId54"/>
-    <hyperlink ref="C70" r:id="rId55"/>
-    <hyperlink ref="C71" r:id="rId56"/>
-    <hyperlink ref="C72" r:id="rId57"/>
-    <hyperlink ref="C73" r:id="rId58"/>
-    <hyperlink ref="C74" r:id="rId59"/>
-    <hyperlink ref="C75" r:id="rId60"/>
-    <hyperlink ref="C76" r:id="rId61"/>
-    <hyperlink ref="C77" r:id="rId62"/>
-    <hyperlink ref="C78" r:id="rId63"/>
-    <hyperlink ref="C80" r:id="rId64"/>
-    <hyperlink ref="C81" r:id="rId65"/>
-    <hyperlink ref="C82" r:id="rId66"/>
-    <hyperlink ref="C83" r:id="rId67"/>
-    <hyperlink ref="C84" r:id="rId68"/>
-    <hyperlink ref="C85" r:id="rId69"/>
-    <hyperlink ref="C86" r:id="rId70"/>
-    <hyperlink ref="C87" r:id="rId71"/>
-    <hyperlink ref="C88" r:id="rId72"/>
-    <hyperlink ref="C90" r:id="rId73"/>
-    <hyperlink ref="C91" r:id="rId74"/>
-    <hyperlink ref="C92" r:id="rId75"/>
-    <hyperlink ref="C93" r:id="rId76"/>
-    <hyperlink ref="C94" r:id="rId77"/>
-    <hyperlink ref="C95" r:id="rId78"/>
-    <hyperlink ref="C96" r:id="rId79"/>
-    <hyperlink ref="C98" r:id="rId80"/>
-    <hyperlink ref="C99" r:id="rId81"/>
-    <hyperlink ref="C100" r:id="rId82"/>
-    <hyperlink ref="C101" r:id="rId83"/>
-    <hyperlink ref="C102" r:id="rId84"/>
-    <hyperlink ref="C103" r:id="rId85"/>
-    <hyperlink ref="C104" r:id="rId86"/>
-    <hyperlink ref="C105" r:id="rId87"/>
-    <hyperlink ref="C110" r:id="rId88"/>
-    <hyperlink ref="C111" r:id="rId89"/>
-    <hyperlink ref="C112" r:id="rId90"/>
-    <hyperlink ref="C113" r:id="rId91"/>
-    <hyperlink ref="C114" r:id="rId92"/>
-    <hyperlink ref="C115" r:id="rId93"/>
-    <hyperlink ref="C116" r:id="rId94"/>
-    <hyperlink ref="C117" r:id="rId95"/>
-    <hyperlink ref="C118" r:id="rId96"/>
-    <hyperlink ref="C119" r:id="rId97"/>
-    <hyperlink ref="C120" r:id="rId98"/>
-    <hyperlink ref="C121" r:id="rId99"/>
-    <hyperlink ref="C122" r:id="rId100"/>
-    <hyperlink ref="C123" r:id="rId101"/>
-    <hyperlink ref="C124" r:id="rId102"/>
-    <hyperlink ref="C125" r:id="rId103"/>
-    <hyperlink ref="C126" r:id="rId104"/>
-    <hyperlink ref="C128" r:id="rId105"/>
-    <hyperlink ref="C129" r:id="rId106"/>
-    <hyperlink ref="C130" r:id="rId107"/>
-    <hyperlink ref="C131" r:id="rId108"/>
-    <hyperlink ref="C132" r:id="rId109"/>
-    <hyperlink ref="C133" r:id="rId110"/>
-    <hyperlink ref="C134" r:id="rId111"/>
-    <hyperlink ref="C135" r:id="rId112"/>
-    <hyperlink ref="C136" r:id="rId113"/>
-    <hyperlink ref="C138" r:id="rId114"/>
-    <hyperlink ref="C139" r:id="rId115"/>
-    <hyperlink ref="C140" r:id="rId116"/>
-    <hyperlink ref="C141" r:id="rId117"/>
-    <hyperlink ref="C142" r:id="rId118"/>
-    <hyperlink ref="C143" r:id="rId119"/>
-    <hyperlink ref="C144" r:id="rId120"/>
-    <hyperlink ref="C145" r:id="rId121"/>
-    <hyperlink ref="C147" r:id="rId122"/>
-    <hyperlink ref="C148" r:id="rId123"/>
-    <hyperlink ref="C149" r:id="rId124"/>
-    <hyperlink ref="C150" r:id="rId125"/>
-    <hyperlink ref="C151" r:id="rId126"/>
-    <hyperlink ref="C156" r:id="rId127"/>
-    <hyperlink ref="C157" r:id="rId128"/>
-    <hyperlink ref="C158" r:id="rId129"/>
-    <hyperlink ref="C159" r:id="rId130"/>
-    <hyperlink ref="C160" r:id="rId131"/>
-    <hyperlink ref="C161" r:id="rId132"/>
-    <hyperlink ref="C162" r:id="rId133"/>
-    <hyperlink ref="C163" r:id="rId134"/>
-    <hyperlink ref="C164" r:id="rId135"/>
-    <hyperlink ref="C166" r:id="rId136"/>
-    <hyperlink ref="C167" r:id="rId137"/>
-    <hyperlink ref="C168" r:id="rId138"/>
-    <hyperlink ref="C169" r:id="rId139"/>
-    <hyperlink ref="C170" r:id="rId140"/>
-    <hyperlink ref="C171" r:id="rId141"/>
-    <hyperlink ref="C172" r:id="rId142"/>
-    <hyperlink ref="C173" r:id="rId143"/>
-    <hyperlink ref="C174" r:id="rId144"/>
-    <hyperlink ref="C175" r:id="rId145"/>
-    <hyperlink ref="C176" r:id="rId146"/>
-    <hyperlink ref="C177" r:id="rId147"/>
-    <hyperlink ref="C179" r:id="rId148"/>
-    <hyperlink ref="C180" r:id="rId149"/>
-    <hyperlink ref="C181" r:id="rId150"/>
-    <hyperlink ref="C182" r:id="rId151"/>
-    <hyperlink ref="C183" r:id="rId152"/>
-    <hyperlink ref="C184" r:id="rId153"/>
-    <hyperlink ref="C185" r:id="rId154"/>
-    <hyperlink ref="C186" r:id="rId155"/>
-    <hyperlink ref="C187" r:id="rId156"/>
-    <hyperlink ref="C188" r:id="rId157"/>
-    <hyperlink ref="C190" r:id="rId158"/>
-    <hyperlink ref="C191" r:id="rId159"/>
-    <hyperlink ref="C192" r:id="rId160"/>
-    <hyperlink ref="C193" r:id="rId161"/>
-    <hyperlink ref="C194" r:id="rId162"/>
-    <hyperlink ref="C195" r:id="rId163"/>
-    <hyperlink ref="C196" r:id="rId164"/>
-    <hyperlink ref="C197" r:id="rId165"/>
-    <hyperlink ref="C198" r:id="rId166"/>
-    <hyperlink ref="C199" r:id="rId167"/>
-    <hyperlink ref="C201" r:id="rId168"/>
-    <hyperlink ref="C202" r:id="rId169"/>
-    <hyperlink ref="C203" r:id="rId170"/>
-    <hyperlink ref="C204" r:id="rId171"/>
-    <hyperlink ref="C205" r:id="rId172"/>
-    <hyperlink ref="C206" r:id="rId173"/>
-    <hyperlink ref="C207" r:id="rId174"/>
-    <hyperlink ref="C208" r:id="rId175"/>
-    <hyperlink ref="C210" r:id="rId176"/>
-    <hyperlink ref="C211" r:id="rId177"/>
-    <hyperlink ref="C212" r:id="rId178"/>
-    <hyperlink ref="C213" r:id="rId179"/>
-    <hyperlink ref="C214" r:id="rId180"/>
-    <hyperlink ref="C215" r:id="rId181"/>
-    <hyperlink ref="C216" r:id="rId182"/>
-    <hyperlink ref="C218" r:id="rId183"/>
-    <hyperlink ref="C219" r:id="rId184"/>
-    <hyperlink ref="C220" r:id="rId185"/>
-    <hyperlink ref="C221" r:id="rId186"/>
-    <hyperlink ref="C222" r:id="rId187"/>
-    <hyperlink ref="C223" r:id="rId188"/>
-    <hyperlink ref="C224" r:id="rId189"/>
-    <hyperlink ref="C225" r:id="rId190"/>
-    <hyperlink ref="C227" r:id="rId191"/>
-    <hyperlink ref="C228" r:id="rId192"/>
-    <hyperlink ref="C229" r:id="rId193"/>
-    <hyperlink ref="C230" r:id="rId194"/>
-    <hyperlink ref="C231" r:id="rId195"/>
-    <hyperlink ref="C232" r:id="rId196"/>
-    <hyperlink ref="C233" r:id="rId197"/>
+    <hyperlink ref="C186" r:id="rId1"/>
+    <hyperlink ref="C187" r:id="rId2"/>
+    <hyperlink ref="C188" r:id="rId3"/>
+    <hyperlink ref="C189" r:id="rId4"/>
+    <hyperlink ref="C190" r:id="rId5"/>
+    <hyperlink ref="C191" r:id="rId6"/>
+    <hyperlink ref="C192" r:id="rId7"/>
+    <hyperlink ref="C193" r:id="rId8"/>
+    <hyperlink ref="C195" r:id="rId9"/>
+    <hyperlink ref="C196" r:id="rId10"/>
+    <hyperlink ref="C197" r:id="rId11"/>
+    <hyperlink ref="C198" r:id="rId12"/>
+    <hyperlink ref="C199" r:id="rId13"/>
+    <hyperlink ref="C200" r:id="rId14"/>
+    <hyperlink ref="C201" r:id="rId15"/>
+    <hyperlink ref="C203" r:id="rId16"/>
+    <hyperlink ref="C202" r:id="rId17"/>
+    <hyperlink ref="C204" r:id="rId18"/>
+    <hyperlink ref="C206" r:id="rId19"/>
+    <hyperlink ref="C207" r:id="rId20"/>
+    <hyperlink ref="C208" r:id="rId21"/>
+    <hyperlink ref="C209" r:id="rId22"/>
+    <hyperlink ref="C210" r:id="rId23"/>
+    <hyperlink ref="C212" r:id="rId24"/>
+    <hyperlink ref="C213" r:id="rId25"/>
+    <hyperlink ref="C214" r:id="rId26"/>
+    <hyperlink ref="C215" r:id="rId27"/>
+    <hyperlink ref="C216" r:id="rId28"/>
+    <hyperlink ref="C217" r:id="rId29"/>
+    <hyperlink ref="C218" r:id="rId30"/>
+    <hyperlink ref="C220" r:id="rId31"/>
+    <hyperlink ref="C221" r:id="rId32"/>
+    <hyperlink ref="C222" r:id="rId33"/>
+    <hyperlink ref="C223" r:id="rId34"/>
+    <hyperlink ref="C224" r:id="rId35"/>
+    <hyperlink ref="C225" r:id="rId36"/>
+    <hyperlink ref="C226" r:id="rId37"/>
+    <hyperlink ref="C227" r:id="rId38"/>
+    <hyperlink ref="C229" r:id="rId39"/>
+    <hyperlink ref="C230" r:id="rId40"/>
+    <hyperlink ref="C231" r:id="rId41"/>
+    <hyperlink ref="C232" r:id="rId42"/>
+    <hyperlink ref="C233" r:id="rId43"/>
+    <hyperlink ref="C6" r:id="rId44"/>
+    <hyperlink ref="C7" r:id="rId45"/>
+    <hyperlink ref="C8" r:id="rId46"/>
+    <hyperlink ref="C9" r:id="rId47"/>
+    <hyperlink ref="C10" r:id="rId48"/>
+    <hyperlink ref="C11" r:id="rId49"/>
+    <hyperlink ref="C12" r:id="rId50"/>
+    <hyperlink ref="C13" r:id="rId51"/>
+    <hyperlink ref="C14" r:id="rId52"/>
+    <hyperlink ref="C16" r:id="rId53"/>
+    <hyperlink ref="C17" r:id="rId54"/>
+    <hyperlink ref="C18" r:id="rId55"/>
+    <hyperlink ref="C19" r:id="rId56"/>
+    <hyperlink ref="C20" r:id="rId57"/>
+    <hyperlink ref="C21" r:id="rId58"/>
+    <hyperlink ref="C22" r:id="rId59"/>
+    <hyperlink ref="C23" r:id="rId60"/>
+    <hyperlink ref="C24" r:id="rId61"/>
+    <hyperlink ref="C25" r:id="rId62"/>
+    <hyperlink ref="C26" r:id="rId63"/>
+    <hyperlink ref="C28" r:id="rId64"/>
+    <hyperlink ref="C29" r:id="rId65"/>
+    <hyperlink ref="C30" r:id="rId66"/>
+    <hyperlink ref="C31" r:id="rId67"/>
+    <hyperlink ref="C32" r:id="rId68"/>
+    <hyperlink ref="C33" r:id="rId69"/>
+    <hyperlink ref="C34" r:id="rId70"/>
+    <hyperlink ref="C35" r:id="rId71"/>
+    <hyperlink ref="C36" r:id="rId72"/>
+    <hyperlink ref="C38" r:id="rId73"/>
+    <hyperlink ref="C39" r:id="rId74"/>
+    <hyperlink ref="C40" r:id="rId75"/>
+    <hyperlink ref="C41" r:id="rId76"/>
+    <hyperlink ref="C42" r:id="rId77"/>
+    <hyperlink ref="C43" r:id="rId78"/>
+    <hyperlink ref="C44" r:id="rId79"/>
+    <hyperlink ref="C46" r:id="rId80"/>
+    <hyperlink ref="C47" r:id="rId81"/>
+    <hyperlink ref="C48" r:id="rId82"/>
+    <hyperlink ref="C49" r:id="rId83"/>
+    <hyperlink ref="C50" r:id="rId84"/>
+    <hyperlink ref="C51" r:id="rId85"/>
+    <hyperlink ref="C52" r:id="rId86"/>
+    <hyperlink ref="C53" r:id="rId87"/>
+    <hyperlink ref="C58" r:id="rId88"/>
+    <hyperlink ref="C59" r:id="rId89"/>
+    <hyperlink ref="C60" r:id="rId90"/>
+    <hyperlink ref="C61" r:id="rId91"/>
+    <hyperlink ref="C62" r:id="rId92"/>
+    <hyperlink ref="C63" r:id="rId93"/>
+    <hyperlink ref="C64" r:id="rId94"/>
+    <hyperlink ref="C65" r:id="rId95"/>
+    <hyperlink ref="C66" r:id="rId96"/>
+    <hyperlink ref="C67" r:id="rId97"/>
+    <hyperlink ref="C68" r:id="rId98"/>
+    <hyperlink ref="C69" r:id="rId99"/>
+    <hyperlink ref="C70" r:id="rId100"/>
+    <hyperlink ref="C71" r:id="rId101"/>
+    <hyperlink ref="C72" r:id="rId102"/>
+    <hyperlink ref="C73" r:id="rId103"/>
+    <hyperlink ref="C74" r:id="rId104"/>
+    <hyperlink ref="C76" r:id="rId105"/>
+    <hyperlink ref="C77" r:id="rId106"/>
+    <hyperlink ref="C78" r:id="rId107"/>
+    <hyperlink ref="C79" r:id="rId108"/>
+    <hyperlink ref="C80" r:id="rId109"/>
+    <hyperlink ref="C81" r:id="rId110"/>
+    <hyperlink ref="C82" r:id="rId111"/>
+    <hyperlink ref="C83" r:id="rId112"/>
+    <hyperlink ref="C84" r:id="rId113"/>
+    <hyperlink ref="C86" r:id="rId114"/>
+    <hyperlink ref="C87" r:id="rId115"/>
+    <hyperlink ref="C88" r:id="rId116"/>
+    <hyperlink ref="C89" r:id="rId117"/>
+    <hyperlink ref="C90" r:id="rId118"/>
+    <hyperlink ref="C91" r:id="rId119"/>
+    <hyperlink ref="C92" r:id="rId120"/>
+    <hyperlink ref="C93" r:id="rId121"/>
+    <hyperlink ref="C95" r:id="rId122"/>
+    <hyperlink ref="C96" r:id="rId123"/>
+    <hyperlink ref="C97" r:id="rId124"/>
+    <hyperlink ref="C98" r:id="rId125"/>
+    <hyperlink ref="C99" r:id="rId126"/>
+    <hyperlink ref="C104" r:id="rId127"/>
+    <hyperlink ref="C105" r:id="rId128"/>
+    <hyperlink ref="C106" r:id="rId129"/>
+    <hyperlink ref="C107" r:id="rId130"/>
+    <hyperlink ref="C108" r:id="rId131"/>
+    <hyperlink ref="C109" r:id="rId132"/>
+    <hyperlink ref="C110" r:id="rId133"/>
+    <hyperlink ref="C111" r:id="rId134"/>
+    <hyperlink ref="C112" r:id="rId135"/>
+    <hyperlink ref="C114" r:id="rId136"/>
+    <hyperlink ref="C115" r:id="rId137"/>
+    <hyperlink ref="C116" r:id="rId138"/>
+    <hyperlink ref="C117" r:id="rId139"/>
+    <hyperlink ref="C118" r:id="rId140"/>
+    <hyperlink ref="C119" r:id="rId141"/>
+    <hyperlink ref="C120" r:id="rId142"/>
+    <hyperlink ref="C121" r:id="rId143"/>
+    <hyperlink ref="C122" r:id="rId144"/>
+    <hyperlink ref="C123" r:id="rId145"/>
+    <hyperlink ref="C124" r:id="rId146"/>
+    <hyperlink ref="C125" r:id="rId147"/>
+    <hyperlink ref="C127" r:id="rId148"/>
+    <hyperlink ref="C128" r:id="rId149"/>
+    <hyperlink ref="C129" r:id="rId150"/>
+    <hyperlink ref="C130" r:id="rId151"/>
+    <hyperlink ref="C131" r:id="rId152"/>
+    <hyperlink ref="C132" r:id="rId153"/>
+    <hyperlink ref="C133" r:id="rId154"/>
+    <hyperlink ref="C134" r:id="rId155"/>
+    <hyperlink ref="C135" r:id="rId156"/>
+    <hyperlink ref="C136" r:id="rId157"/>
+    <hyperlink ref="C138" r:id="rId158"/>
+    <hyperlink ref="C139" r:id="rId159"/>
+    <hyperlink ref="C140" r:id="rId160"/>
+    <hyperlink ref="C141" r:id="rId161"/>
+    <hyperlink ref="C142" r:id="rId162"/>
+    <hyperlink ref="C143" r:id="rId163"/>
+    <hyperlink ref="C144" r:id="rId164"/>
+    <hyperlink ref="C145" r:id="rId165"/>
+    <hyperlink ref="C146" r:id="rId166"/>
+    <hyperlink ref="C147" r:id="rId167"/>
+    <hyperlink ref="C149" r:id="rId168"/>
+    <hyperlink ref="C150" r:id="rId169"/>
+    <hyperlink ref="C151" r:id="rId170"/>
+    <hyperlink ref="C152" r:id="rId171"/>
+    <hyperlink ref="C153" r:id="rId172"/>
+    <hyperlink ref="C154" r:id="rId173"/>
+    <hyperlink ref="C155" r:id="rId174"/>
+    <hyperlink ref="C156" r:id="rId175"/>
+    <hyperlink ref="C158" r:id="rId176"/>
+    <hyperlink ref="C159" r:id="rId177"/>
+    <hyperlink ref="C160" r:id="rId178"/>
+    <hyperlink ref="C161" r:id="rId179"/>
+    <hyperlink ref="C162" r:id="rId180"/>
+    <hyperlink ref="C163" r:id="rId181"/>
+    <hyperlink ref="C164" r:id="rId182"/>
+    <hyperlink ref="C166" r:id="rId183"/>
+    <hyperlink ref="C167" r:id="rId184"/>
+    <hyperlink ref="C168" r:id="rId185"/>
+    <hyperlink ref="C169" r:id="rId186"/>
+    <hyperlink ref="C170" r:id="rId187"/>
+    <hyperlink ref="C171" r:id="rId188"/>
+    <hyperlink ref="C172" r:id="rId189"/>
+    <hyperlink ref="C173" r:id="rId190"/>
+    <hyperlink ref="C175" r:id="rId191"/>
+    <hyperlink ref="C176" r:id="rId192"/>
+    <hyperlink ref="C177" r:id="rId193"/>
+    <hyperlink ref="C178" r:id="rId194"/>
+    <hyperlink ref="C179" r:id="rId195"/>
+    <hyperlink ref="C180" r:id="rId196"/>
+    <hyperlink ref="C181" r:id="rId197"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId198"/>
@@ -6480,7 +6554,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6489,62 +6563,62 @@
       <c r="C2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>291</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -6553,56 +6627,56 @@
       <c r="C9" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="35" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="9" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="9" t="s">
         <v>298</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="37"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="35" t="s">
         <v>424</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -6611,50 +6685,50 @@
       <c r="C16" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="35" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="9" t="s">
         <v>427</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="9" t="s">
         <v>429</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="9" t="s">
         <v>431</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="35" t="s">
         <v>680</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -6663,79 +6737,79 @@
       <c r="C23" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="35" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="9" t="s">
         <v>664</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="9" t="s">
         <v>530</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="9" t="s">
         <v>666</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="9" t="s">
         <v>669</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="9" t="s">
         <v>671</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="9" t="s">
         <v>629</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D29" s="33"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="9" t="s">
         <v>674</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6767,10 +6841,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
@@ -6810,10 +6884,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
@@ -6850,10 +6924,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="38"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
@@ -6920,10 +6994,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="38"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
@@ -7016,15 +7090,15 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -7058,15 +7132,15 @@
       <c r="T32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
@@ -7091,15 +7165,15 @@
       <c r="T50" s="17"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="17"/>
@@ -7125,15 +7199,15 @@
     </row>
     <row r="95" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="17"/>
@@ -7158,15 +7232,15 @@
       <c r="T105" s="17"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="17"/>
@@ -7191,15 +7265,15 @@
       <c r="T135" s="17"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A136" s="35" t="s">
+      <c r="A136" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="B136" s="35"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" s="17"/>
@@ -7224,15 +7298,15 @@
       <c r="T177" s="17"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A179" s="35" t="s">
+      <c r="A179" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="B179" s="35"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="35"/>
-      <c r="E179" s="35"/>
-      <c r="F179" s="35"/>
-      <c r="G179" s="35"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="38"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="38"/>
+      <c r="G179" s="38"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="17"/>
@@ -7257,15 +7331,15 @@
       <c r="T192" s="17"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="35" t="s">
+      <c r="A194" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="B194" s="35"/>
-      <c r="C194" s="35"/>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
-      <c r="F194" s="35"/>
-      <c r="G194" s="35"/>
+      <c r="B194" s="38"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="38"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="38"/>
+      <c r="G194" s="38"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" s="17"/>
@@ -7290,15 +7364,15 @@
       <c r="T217" s="17"/>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A219" s="35" t="s">
+      <c r="A219" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="B219" s="35"/>
-      <c r="C219" s="35"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="35"/>
-      <c r="F219" s="35"/>
-      <c r="G219" s="35"/>
+      <c r="B219" s="38"/>
+      <c r="C219" s="38"/>
+      <c r="D219" s="38"/>
+      <c r="E219" s="38"/>
+      <c r="F219" s="38"/>
+      <c r="G219" s="38"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="17"/>
@@ -7323,15 +7397,15 @@
       <c r="T231" s="17"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A233" s="35" t="s">
+      <c r="A233" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="B233" s="35"/>
-      <c r="C233" s="35"/>
-      <c r="D233" s="35"/>
-      <c r="E233" s="35"/>
-      <c r="F233" s="35"/>
-      <c r="G233" s="35"/>
+      <c r="B233" s="38"/>
+      <c r="C233" s="38"/>
+      <c r="D233" s="38"/>
+      <c r="E233" s="38"/>
+      <c r="F233" s="38"/>
+      <c r="G233" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7367,10 +7441,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">

--- a/HTML_CSS_Responsive_Web_Design_Course.xlsx
+++ b/HTML_CSS_Responsive_Web_Design_Course.xlsx
@@ -2083,7 +2083,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2134,6 +2134,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2360,19 +2367,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2387,10 +2388,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,25 +2424,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3147,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3162,13 +3169,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="27" t="s">
         <v>683</v>
       </c>
     </row>
@@ -3185,16 +3192,16 @@
       <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -3205,13 +3212,13 @@
       <c r="D4" s="14">
         <v>8.9490740740740746E-2</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -3340,10 +3347,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="32"/>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -3500,10 +3507,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -3632,10 +3639,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="26"/>
+      <c r="B37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
@@ -3736,10 +3743,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
@@ -3854,12 +3861,12 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
@@ -3872,10 +3879,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="B57" s="26"/>
+      <c r="B57" s="32"/>
     </row>
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
@@ -4116,10 +4123,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="B75" s="26"/>
+      <c r="B75" s="32"/>
     </row>
     <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
@@ -4248,10 +4255,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B85" s="26"/>
+      <c r="B85" s="32"/>
     </row>
     <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
@@ -4366,10 +4373,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="B94" s="26"/>
+      <c r="B94" s="32"/>
     </row>
     <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
@@ -4442,12 +4449,12 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="15"/>
@@ -4460,10 +4467,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="B103" s="26"/>
+      <c r="B103" s="32"/>
     </row>
     <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
@@ -4592,10 +4599,10 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="B113" s="32"/>
+      <c r="B113" s="30"/>
     </row>
     <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
@@ -4766,10 +4773,10 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="30" t="s">
         <v>519</v>
       </c>
-      <c r="B126" s="32"/>
+      <c r="B126" s="30"/>
     </row>
     <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
@@ -4912,10 +4919,10 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="B137" s="32"/>
+      <c r="B137" s="30"/>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
@@ -5058,10 +5065,10 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="B148" s="32"/>
+      <c r="B148" s="30"/>
     </row>
     <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
@@ -5176,10 +5183,10 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="32" t="s">
+      <c r="A157" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="B157" s="32"/>
+      <c r="B157" s="30"/>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
@@ -5280,10 +5287,10 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="32" t="s">
+      <c r="A165" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="B165" s="32"/>
+      <c r="B165" s="30"/>
     </row>
     <row r="166" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
@@ -5398,10 +5405,10 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="30" t="s">
         <v>642</v>
       </c>
-      <c r="B174" s="32"/>
+      <c r="B174" s="30"/>
     </row>
     <row r="175" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
@@ -5502,33 +5509,33 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="40" t="s">
+      <c r="A183" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B183" s="40"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="40"/>
-      <c r="E183" s="44" t="s">
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="24" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="41"/>
-      <c r="B184" s="41"/>
-      <c r="C184" s="42" t="s">
+      <c r="A184" s="44"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="D184" s="43">
+      <c r="D184" s="46">
         <v>9.2905092592592595E-2</v>
       </c>
-      <c r="E184" s="45"/>
+      <c r="E184" s="25"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="27" t="s">
+      <c r="A185" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B185" s="28"/>
-      <c r="E185" s="46"/>
+      <c r="B185" s="37"/>
+      <c r="E185" s="26"/>
     </row>
     <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
@@ -5667,10 +5674,10 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="27" t="s">
+      <c r="A194" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B194" s="28"/>
+      <c r="B194" s="37"/>
     </row>
     <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
@@ -5843,10 +5850,10 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A205" s="27" t="s">
+      <c r="A205" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B205" s="28"/>
+      <c r="B205" s="37"/>
     </row>
     <row r="206" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
@@ -5934,10 +5941,10 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A211" s="27" t="s">
+      <c r="A211" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B211" s="28"/>
+      <c r="B211" s="37"/>
     </row>
     <row r="212" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
@@ -6056,10 +6063,10 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A219" s="27" t="s">
+      <c r="A219" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B219" s="28"/>
+      <c r="B219" s="37"/>
     </row>
     <row r="220" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
@@ -6198,10 +6205,10 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A228" s="27" t="s">
+      <c r="A228" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B228" s="28"/>
+      <c r="B228" s="37"/>
     </row>
     <row r="229" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
@@ -6290,6 +6297,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="E183:E185"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="A165:B165"/>
@@ -6306,20 +6327,6 @@
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A228:B228"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C186" r:id="rId1"/>
@@ -6554,7 +6561,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6563,62 +6570,62 @@
       <c r="C2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="38" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -6627,56 +6634,56 @@
       <c r="C9" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="38" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="9" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="9" t="s">
         <v>298</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="40"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="38" t="s">
         <v>424</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -6685,50 +6692,50 @@
       <c r="C16" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="38" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="9" t="s">
         <v>427</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="9" t="s">
         <v>429</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="9" t="s">
         <v>431</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="A20" s="39"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="A21" s="40"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="38" t="s">
         <v>680</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -6737,79 +6744,79 @@
       <c r="C23" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="38" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="36"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>664</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="36"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="9" t="s">
         <v>530</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="36"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9" t="s">
         <v>666</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>669</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="39"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="36"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="9" t="s">
         <v>671</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="36"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="9" t="s">
         <v>629</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9" t="s">
         <v>674</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6841,10 +6848,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
@@ -6884,10 +6891,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
@@ -6924,10 +6931,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
@@ -6994,10 +7001,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="41" t="s">
         <v>677</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="41"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
@@ -7090,15 +7097,15 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -7132,15 +7139,15 @@
       <c r="T32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
@@ -7165,15 +7172,15 @@
       <c r="T50" s="17"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="17"/>
@@ -7199,15 +7206,15 @@
     </row>
     <row r="95" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="17"/>
@@ -7232,15 +7239,15 @@
       <c r="T105" s="17"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="17"/>
@@ -7265,15 +7272,15 @@
       <c r="T135" s="17"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A136" s="38" t="s">
+      <c r="A136" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="B136" s="38"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" s="17"/>
@@ -7298,15 +7305,15 @@
       <c r="T177" s="17"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A179" s="38" t="s">
+      <c r="A179" s="41" t="s">
         <v>449</v>
       </c>
-      <c r="B179" s="38"/>
-      <c r="C179" s="38"/>
-      <c r="D179" s="38"/>
-      <c r="E179" s="38"/>
-      <c r="F179" s="38"/>
-      <c r="G179" s="38"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="41"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="41"/>
+      <c r="G179" s="41"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="17"/>
@@ -7331,15 +7338,15 @@
       <c r="T192" s="17"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="38" t="s">
+      <c r="A194" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="B194" s="38"/>
-      <c r="C194" s="38"/>
-      <c r="D194" s="38"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="38"/>
-      <c r="G194" s="38"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
+      <c r="D194" s="41"/>
+      <c r="E194" s="41"/>
+      <c r="F194" s="41"/>
+      <c r="G194" s="41"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" s="17"/>
@@ -7364,15 +7371,15 @@
       <c r="T217" s="17"/>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A219" s="38" t="s">
+      <c r="A219" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="B219" s="38"/>
-      <c r="C219" s="38"/>
-      <c r="D219" s="38"/>
-      <c r="E219" s="38"/>
-      <c r="F219" s="38"/>
-      <c r="G219" s="38"/>
+      <c r="B219" s="41"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41"/>
+      <c r="E219" s="41"/>
+      <c r="F219" s="41"/>
+      <c r="G219" s="41"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="17"/>
@@ -7397,15 +7404,15 @@
       <c r="T231" s="17"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A233" s="38" t="s">
+      <c r="A233" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="B233" s="38"/>
-      <c r="C233" s="38"/>
-      <c r="D233" s="38"/>
-      <c r="E233" s="38"/>
-      <c r="F233" s="38"/>
-      <c r="G233" s="38"/>
+      <c r="B233" s="41"/>
+      <c r="C233" s="41"/>
+      <c r="D233" s="41"/>
+      <c r="E233" s="41"/>
+      <c r="F233" s="41"/>
+      <c r="G233" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7441,10 +7448,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
